--- a/experiment_results/time_results.xlsx
+++ b/experiment_results/time_results.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Greedy</t>
+          <t>Tham lam</t>
         </is>
       </c>
       <c r="C1" s="1" t="n"/>
@@ -478,13 +478,22 @@
       <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Evolutionary</t>
+          <t>Quy hoạch động</t>
         </is>
       </c>
       <c r="H1" s="1" t="n"/>
       <c r="I1" s="1" t="n"/>
       <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Di truyền</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,6 +551,31 @@
           <t>max</t>
         </is>
       </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>med</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -550,34 +584,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6155</v>
+        <v>2758</v>
       </c>
       <c r="C4" t="n">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="D4" t="n">
-        <v>5992</v>
+        <v>2554</v>
       </c>
       <c r="E4" t="n">
-        <v>6094</v>
+        <v>2690</v>
       </c>
       <c r="F4" t="n">
-        <v>6736</v>
+        <v>3047</v>
       </c>
       <c r="G4" t="n">
-        <v>19037</v>
+        <v>181</v>
       </c>
       <c r="H4" t="n">
-        <v>1329</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>17335</v>
+        <v>179</v>
       </c>
       <c r="J4" t="n">
-        <v>19263</v>
+        <v>181</v>
       </c>
       <c r="K4" t="n">
-        <v>20597</v>
+        <v>183</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11932</v>
+      </c>
+      <c r="M4" t="n">
+        <v>894</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11213</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11587</v>
+      </c>
+      <c r="P4" t="n">
+        <v>14025</v>
       </c>
     </row>
     <row r="5">
@@ -587,38 +636,470 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4426</v>
+        <v>2810</v>
       </c>
       <c r="C5" t="n">
-        <v>1075</v>
+        <v>263</v>
       </c>
       <c r="D5" t="n">
-        <v>3527</v>
+        <v>2641</v>
       </c>
       <c r="E5" t="n">
-        <v>4058</v>
+        <v>2689</v>
       </c>
       <c r="F5" t="n">
-        <v>7334</v>
+        <v>3467</v>
       </c>
       <c r="G5" t="n">
-        <v>23955</v>
+        <v>109</v>
       </c>
       <c r="H5" t="n">
-        <v>4718</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>18863</v>
+        <v>107</v>
       </c>
       <c r="J5" t="n">
-        <v>22179</v>
+        <v>109</v>
       </c>
       <c r="K5" t="n">
-        <v>33012</v>
+        <v>114</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11677</v>
+      </c>
+      <c r="M5" t="n">
+        <v>744</v>
+      </c>
+      <c r="N5" t="n">
+        <v>10715</v>
+      </c>
+      <c r="O5" t="n">
+        <v>11404</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Problem 3</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1438</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1383</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1428</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2945</v>
+      </c>
+      <c r="G6" t="n">
+        <v>157</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>156</v>
+      </c>
+      <c r="J6" t="n">
+        <v>157</v>
+      </c>
+      <c r="K6" t="n">
+        <v>158</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5489</v>
+      </c>
+      <c r="M6" t="n">
+        <v>303</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5252</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5397</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6351</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Problem 4</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>91</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>89</v>
+      </c>
+      <c r="J7" t="n">
+        <v>90</v>
+      </c>
+      <c r="K7" t="n">
+        <v>94</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5458</v>
+      </c>
+      <c r="M7" t="n">
+        <v>86</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5310</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5460</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Problem 5</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" t="n">
+        <v>78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>83</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3469</v>
+      </c>
+      <c r="M8" t="n">
+        <v>265</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3237</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3394</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Problem 6</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+      <c r="G9" t="n">
+        <v>59</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>57</v>
+      </c>
+      <c r="J9" t="n">
+        <v>59</v>
+      </c>
+      <c r="K9" t="n">
+        <v>63</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4232</v>
+      </c>
+      <c r="M9" t="n">
+        <v>177</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4054</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4209</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4697</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Problem 7</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>115</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>113</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3156</v>
+      </c>
+      <c r="M10" t="n">
+        <v>48</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3096</v>
+      </c>
+      <c r="O10" t="n">
+        <v>3147</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Problem 8</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>49</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>49</v>
+      </c>
+      <c r="J11" t="n">
+        <v>49</v>
+      </c>
+      <c r="K11" t="n">
+        <v>50</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2813</v>
+      </c>
+      <c r="M11" t="n">
+        <v>76</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2701</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2782</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Problem 9</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>346</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>344</v>
+      </c>
+      <c r="J12" t="n">
+        <v>345</v>
+      </c>
+      <c r="K12" t="n">
+        <v>352</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8527</v>
+      </c>
+      <c r="M12" t="n">
+        <v>256</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8242</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8429</v>
+      </c>
+      <c r="P12" t="n">
+        <v>9163</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Problem 10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>54</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53</v>
+      </c>
+      <c r="J13" t="n">
+        <v>54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>57</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4026</v>
+      </c>
+      <c r="M13" t="n">
+        <v>66</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3926</v>
+      </c>
+      <c r="O13" t="n">
+        <v>4017</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4160</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="L1:P1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
   </mergeCells>

--- a/experiment_results/time_results.xlsx
+++ b/experiment_results/time_results.xlsx
@@ -584,49 +584,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2758</v>
+        <v>3336</v>
       </c>
       <c r="C4" t="n">
-        <v>184</v>
+        <v>575</v>
       </c>
       <c r="D4" t="n">
-        <v>2554</v>
+        <v>2652</v>
       </c>
       <c r="E4" t="n">
-        <v>2690</v>
+        <v>3145</v>
       </c>
       <c r="F4" t="n">
-        <v>3047</v>
+        <v>4463</v>
       </c>
       <c r="G4" t="n">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I4" t="n">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="J4" t="n">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="K4" t="n">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L4" t="n">
-        <v>11932</v>
+        <v>9698</v>
       </c>
       <c r="M4" t="n">
-        <v>894</v>
+        <v>1252</v>
       </c>
       <c r="N4" t="n">
-        <v>11213</v>
+        <v>7868</v>
       </c>
       <c r="O4" t="n">
-        <v>11587</v>
+        <v>9528</v>
       </c>
       <c r="P4" t="n">
-        <v>14025</v>
+        <v>12385</v>
       </c>
     </row>
     <row r="5">
@@ -636,49 +636,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2810</v>
+        <v>2406</v>
       </c>
       <c r="C5" t="n">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="D5" t="n">
-        <v>2641</v>
+        <v>2183</v>
       </c>
       <c r="E5" t="n">
-        <v>2689</v>
+        <v>2371</v>
       </c>
       <c r="F5" t="n">
-        <v>3467</v>
+        <v>2897</v>
       </c>
       <c r="G5" t="n">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c r="J5" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="L5" t="n">
-        <v>11677</v>
+        <v>12016</v>
       </c>
       <c r="M5" t="n">
-        <v>744</v>
+        <v>1548</v>
       </c>
       <c r="N5" t="n">
-        <v>10715</v>
+        <v>10214</v>
       </c>
       <c r="O5" t="n">
-        <v>11404</v>
+        <v>11128</v>
       </c>
       <c r="P5" t="n">
-        <v>12970</v>
+        <v>14543</v>
       </c>
     </row>
     <row r="6">
@@ -688,49 +688,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1438</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>1383</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1428</v>
+        <v>61</v>
       </c>
       <c r="F6" t="n">
-        <v>2945</v>
+        <v>116</v>
       </c>
       <c r="G6" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I6" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="J6" t="n">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K6" t="n">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="L6" t="n">
-        <v>5489</v>
+        <v>4298</v>
       </c>
       <c r="M6" t="n">
-        <v>303</v>
+        <v>834</v>
       </c>
       <c r="N6" t="n">
-        <v>5252</v>
+        <v>3665</v>
       </c>
       <c r="O6" t="n">
-        <v>5397</v>
+        <v>4041</v>
       </c>
       <c r="P6" t="n">
-        <v>6351</v>
+        <v>6728</v>
       </c>
     </row>
     <row r="7">
@@ -740,49 +740,49 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G7" t="n">
-        <v>91</v>
+        <v>445</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="I7" t="n">
-        <v>89</v>
+        <v>416</v>
       </c>
       <c r="J7" t="n">
-        <v>90</v>
+        <v>427</v>
       </c>
       <c r="K7" t="n">
-        <v>94</v>
+        <v>501</v>
       </c>
       <c r="L7" t="n">
-        <v>5458</v>
+        <v>6302</v>
       </c>
       <c r="M7" t="n">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="N7" t="n">
-        <v>5310</v>
+        <v>6055</v>
       </c>
       <c r="O7" t="n">
-        <v>5460</v>
+        <v>6183</v>
       </c>
       <c r="P7" t="n">
-        <v>5652</v>
+        <v>6852</v>
       </c>
     </row>
     <row r="8">
@@ -792,49 +792,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>2303</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>2110</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>2331</v>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>2485</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="J8" t="n">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="K8" t="n">
-        <v>83</v>
+        <v>458</v>
       </c>
       <c r="L8" t="n">
-        <v>3469</v>
+        <v>10080</v>
       </c>
       <c r="M8" t="n">
-        <v>265</v>
+        <v>1174</v>
       </c>
       <c r="N8" t="n">
-        <v>3237</v>
+        <v>8642</v>
       </c>
       <c r="O8" t="n">
-        <v>3394</v>
+        <v>9976</v>
       </c>
       <c r="P8" t="n">
-        <v>4224</v>
+        <v>12438</v>
       </c>
     </row>
     <row r="9">
@@ -844,49 +844,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3097</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>519</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2615</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>2872</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4279</v>
       </c>
       <c r="G9" t="n">
-        <v>59</v>
+        <v>807</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I9" t="n">
-        <v>57</v>
+        <v>756</v>
       </c>
       <c r="J9" t="n">
-        <v>59</v>
+        <v>807</v>
       </c>
       <c r="K9" t="n">
-        <v>63</v>
+        <v>898</v>
       </c>
       <c r="L9" t="n">
-        <v>4232</v>
+        <v>19007</v>
       </c>
       <c r="M9" t="n">
-        <v>177</v>
+        <v>4162</v>
       </c>
       <c r="N9" t="n">
-        <v>4054</v>
+        <v>15208</v>
       </c>
       <c r="O9" t="n">
-        <v>4209</v>
+        <v>17189</v>
       </c>
       <c r="P9" t="n">
-        <v>4697</v>
+        <v>26782</v>
       </c>
     </row>
     <row r="10">
@@ -896,49 +896,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>2178</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1515</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>124</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2138</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>5161</v>
       </c>
       <c r="G10" t="n">
-        <v>115</v>
+        <v>875</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I10" t="n">
-        <v>113</v>
+        <v>812</v>
       </c>
       <c r="J10" t="n">
-        <v>115</v>
+        <v>856</v>
       </c>
       <c r="K10" t="n">
-        <v>116</v>
+        <v>997</v>
       </c>
       <c r="L10" t="n">
-        <v>3156</v>
+        <v>18687</v>
       </c>
       <c r="M10" t="n">
-        <v>48</v>
+        <v>3388</v>
       </c>
       <c r="N10" t="n">
-        <v>3096</v>
+        <v>12177</v>
       </c>
       <c r="O10" t="n">
-        <v>3147</v>
+        <v>19438</v>
       </c>
       <c r="P10" t="n">
-        <v>3278</v>
+        <v>23026</v>
       </c>
     </row>
     <row r="11">
@@ -948,49 +948,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
+        <v>62</v>
+      </c>
+      <c r="E11" t="n">
+        <v>68</v>
+      </c>
+      <c r="F11" t="n">
+        <v>131</v>
+      </c>
+      <c r="G11" t="n">
+        <v>47</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
+        <v>46</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47</v>
+      </c>
+      <c r="K11" t="n">
         <v>49</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>49</v>
-      </c>
-      <c r="J11" t="n">
-        <v>49</v>
-      </c>
-      <c r="K11" t="n">
-        <v>50</v>
-      </c>
       <c r="L11" t="n">
-        <v>2813</v>
+        <v>3166</v>
       </c>
       <c r="M11" t="n">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="N11" t="n">
-        <v>2701</v>
+        <v>2885</v>
       </c>
       <c r="O11" t="n">
-        <v>2782</v>
+        <v>3158</v>
       </c>
       <c r="P11" t="n">
-        <v>2930</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="12">
@@ -1000,49 +1000,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>2292</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>229</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>2144</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>2213</v>
       </c>
       <c r="F12" t="n">
-        <v>7</v>
+        <v>2957</v>
       </c>
       <c r="G12" t="n">
-        <v>346</v>
+        <v>16</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>344</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="K12" t="n">
-        <v>352</v>
+        <v>16</v>
       </c>
       <c r="L12" t="n">
-        <v>8527</v>
+        <v>6333</v>
       </c>
       <c r="M12" t="n">
-        <v>256</v>
+        <v>722</v>
       </c>
       <c r="N12" t="n">
-        <v>8242</v>
+        <v>5234</v>
       </c>
       <c r="O12" t="n">
-        <v>8429</v>
+        <v>6345</v>
       </c>
       <c r="P12" t="n">
-        <v>9163</v>
+        <v>7363</v>
       </c>
     </row>
     <row r="13">
@@ -1052,49 +1052,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3123</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>524</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2391</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3113</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3789</v>
       </c>
       <c r="G13" t="n">
-        <v>54</v>
+        <v>1110</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I13" t="n">
-        <v>53</v>
+        <v>1053</v>
       </c>
       <c r="J13" t="n">
-        <v>54</v>
+        <v>1109</v>
       </c>
       <c r="K13" t="n">
-        <v>57</v>
+        <v>1227</v>
       </c>
       <c r="L13" t="n">
-        <v>4026</v>
+        <v>19977</v>
       </c>
       <c r="M13" t="n">
-        <v>66</v>
+        <v>2903</v>
       </c>
       <c r="N13" t="n">
-        <v>3926</v>
+        <v>15693</v>
       </c>
       <c r="O13" t="n">
-        <v>4017</v>
+        <v>20432</v>
       </c>
       <c r="P13" t="n">
-        <v>4160</v>
+        <v>23634</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/time_results.xlsx
+++ b/experiment_results/time_results.xlsx
@@ -584,49 +584,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3336</v>
+        <v>2500</v>
       </c>
       <c r="C4" t="n">
-        <v>575</v>
+        <v>95</v>
       </c>
       <c r="D4" t="n">
-        <v>2652</v>
+        <v>2417</v>
       </c>
       <c r="E4" t="n">
-        <v>3145</v>
+        <v>2473</v>
       </c>
       <c r="F4" t="n">
-        <v>4463</v>
+        <v>2768</v>
       </c>
       <c r="G4" t="n">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="L4" t="n">
-        <v>9698</v>
+        <v>9193</v>
       </c>
       <c r="M4" t="n">
-        <v>1252</v>
+        <v>830</v>
       </c>
       <c r="N4" t="n">
-        <v>7868</v>
+        <v>7834</v>
       </c>
       <c r="O4" t="n">
-        <v>9528</v>
+        <v>9364</v>
       </c>
       <c r="P4" t="n">
-        <v>12385</v>
+        <v>10590</v>
       </c>
     </row>
     <row r="5">
@@ -636,49 +636,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2406</v>
+        <v>2323</v>
       </c>
       <c r="C5" t="n">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D5" t="n">
-        <v>2183</v>
+        <v>2148</v>
       </c>
       <c r="E5" t="n">
-        <v>2371</v>
+        <v>2238</v>
       </c>
       <c r="F5" t="n">
-        <v>2897</v>
+        <v>2770</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J5" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L5" t="n">
-        <v>12016</v>
+        <v>12608</v>
       </c>
       <c r="M5" t="n">
-        <v>1548</v>
+        <v>1109</v>
       </c>
       <c r="N5" t="n">
-        <v>10214</v>
+        <v>10505</v>
       </c>
       <c r="O5" t="n">
-        <v>11128</v>
+        <v>12689</v>
       </c>
       <c r="P5" t="n">
-        <v>14543</v>
+        <v>14151</v>
       </c>
     </row>
     <row r="6">
@@ -688,49 +688,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>116</v>
+        <v>65</v>
       </c>
       <c r="G6" t="n">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I6" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J6" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K6" t="n">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="L6" t="n">
-        <v>4298</v>
+        <v>4446</v>
       </c>
       <c r="M6" t="n">
-        <v>834</v>
+        <v>936</v>
       </c>
       <c r="N6" t="n">
-        <v>3665</v>
+        <v>3624</v>
       </c>
       <c r="O6" t="n">
-        <v>4041</v>
+        <v>4132</v>
       </c>
       <c r="P6" t="n">
-        <v>6728</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="7">
@@ -740,49 +740,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H7" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I7" t="n">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="J7" t="n">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="K7" t="n">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="L7" t="n">
-        <v>6302</v>
+        <v>6194</v>
       </c>
       <c r="M7" t="n">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="N7" t="n">
-        <v>6055</v>
+        <v>5785</v>
       </c>
       <c r="O7" t="n">
-        <v>6183</v>
+        <v>6290</v>
       </c>
       <c r="P7" t="n">
-        <v>6852</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="8">
@@ -792,49 +792,49 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C8" t="n">
+        <v>706</v>
+      </c>
+      <c r="D8" t="n">
+        <v>734</v>
+      </c>
+      <c r="E8" t="n">
         <v>2303</v>
       </c>
-      <c r="C8" t="n">
-        <v>139</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2110</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2331</v>
-      </c>
       <c r="F8" t="n">
-        <v>2485</v>
+        <v>2554</v>
       </c>
       <c r="G8" t="n">
-        <v>394</v>
+        <v>661</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="I8" t="n">
-        <v>366</v>
+        <v>590</v>
       </c>
       <c r="J8" t="n">
-        <v>377</v>
+        <v>615</v>
       </c>
       <c r="K8" t="n">
-        <v>458</v>
+        <v>870</v>
       </c>
       <c r="L8" t="n">
-        <v>10080</v>
+        <v>17088</v>
       </c>
       <c r="M8" t="n">
-        <v>1174</v>
+        <v>1828</v>
       </c>
       <c r="N8" t="n">
-        <v>8642</v>
+        <v>13761</v>
       </c>
       <c r="O8" t="n">
-        <v>9976</v>
+        <v>17072</v>
       </c>
       <c r="P8" t="n">
-        <v>12438</v>
+        <v>19766</v>
       </c>
     </row>
     <row r="9">
@@ -844,49 +844,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3097</v>
+        <v>3197</v>
       </c>
       <c r="C9" t="n">
-        <v>519</v>
+        <v>581</v>
       </c>
       <c r="D9" t="n">
-        <v>2615</v>
+        <v>2313</v>
       </c>
       <c r="E9" t="n">
-        <v>2872</v>
+        <v>3291</v>
       </c>
       <c r="F9" t="n">
-        <v>4279</v>
+        <v>4308</v>
       </c>
       <c r="G9" t="n">
-        <v>807</v>
+        <v>746</v>
       </c>
       <c r="H9" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>756</v>
+        <v>727</v>
       </c>
       <c r="J9" t="n">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K9" t="n">
-        <v>898</v>
+        <v>752</v>
       </c>
       <c r="L9" t="n">
-        <v>19007</v>
+        <v>16826</v>
       </c>
       <c r="M9" t="n">
-        <v>4162</v>
+        <v>2040</v>
       </c>
       <c r="N9" t="n">
-        <v>15208</v>
+        <v>13654</v>
       </c>
       <c r="O9" t="n">
-        <v>17189</v>
+        <v>16745</v>
       </c>
       <c r="P9" t="n">
-        <v>26782</v>
+        <v>20358</v>
       </c>
     </row>
     <row r="10">
@@ -896,49 +896,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2178</v>
+        <v>1005</v>
       </c>
       <c r="C10" t="n">
-        <v>1515</v>
+        <v>677</v>
       </c>
       <c r="D10" t="n">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="E10" t="n">
-        <v>2138</v>
+        <v>747</v>
       </c>
       <c r="F10" t="n">
-        <v>5161</v>
+        <v>2245</v>
       </c>
       <c r="G10" t="n">
-        <v>875</v>
+        <v>767</v>
       </c>
       <c r="H10" t="n">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
-        <v>812</v>
+        <v>760</v>
       </c>
       <c r="J10" t="n">
-        <v>856</v>
+        <v>763</v>
       </c>
       <c r="K10" t="n">
-        <v>997</v>
+        <v>799</v>
       </c>
       <c r="L10" t="n">
-        <v>18687</v>
+        <v>19017</v>
       </c>
       <c r="M10" t="n">
-        <v>3388</v>
+        <v>2743</v>
       </c>
       <c r="N10" t="n">
-        <v>12177</v>
+        <v>15291</v>
       </c>
       <c r="O10" t="n">
-        <v>19438</v>
+        <v>18737</v>
       </c>
       <c r="P10" t="n">
-        <v>23026</v>
+        <v>24726</v>
       </c>
     </row>
     <row r="11">
@@ -948,49 +948,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>342</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>694</v>
       </c>
       <c r="D11" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E11" t="n">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F11" t="n">
-        <v>131</v>
+        <v>2416</v>
       </c>
       <c r="G11" t="n">
-        <v>47</v>
+        <v>1008</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I11" t="n">
-        <v>46</v>
+        <v>957</v>
       </c>
       <c r="J11" t="n">
-        <v>47</v>
+        <v>996</v>
       </c>
       <c r="K11" t="n">
-        <v>49</v>
+        <v>1095</v>
       </c>
       <c r="L11" t="n">
-        <v>3166</v>
+        <v>9071</v>
       </c>
       <c r="M11" t="n">
-        <v>181</v>
+        <v>4526</v>
       </c>
       <c r="N11" t="n">
-        <v>2885</v>
+        <v>5031</v>
       </c>
       <c r="O11" t="n">
-        <v>3158</v>
+        <v>7366</v>
       </c>
       <c r="P11" t="n">
-        <v>3558</v>
+        <v>18554</v>
       </c>
     </row>
     <row r="12">
@@ -1000,49 +1000,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2292</v>
+        <v>574</v>
       </c>
       <c r="C12" t="n">
-        <v>229</v>
+        <v>900</v>
       </c>
       <c r="D12" t="n">
-        <v>2144</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>2213</v>
+        <v>118</v>
       </c>
       <c r="F12" t="n">
-        <v>2957</v>
+        <v>2686</v>
       </c>
       <c r="G12" t="n">
-        <v>16</v>
+        <v>1237</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>1088</v>
       </c>
       <c r="J12" t="n">
-        <v>16</v>
+        <v>1313</v>
       </c>
       <c r="K12" t="n">
-        <v>16</v>
+        <v>1349</v>
       </c>
       <c r="L12" t="n">
-        <v>6333</v>
+        <v>19309</v>
       </c>
       <c r="M12" t="n">
-        <v>722</v>
+        <v>5729</v>
       </c>
       <c r="N12" t="n">
-        <v>5234</v>
+        <v>12319</v>
       </c>
       <c r="O12" t="n">
-        <v>6345</v>
+        <v>18724</v>
       </c>
       <c r="P12" t="n">
-        <v>7363</v>
+        <v>30587</v>
       </c>
     </row>
     <row r="13">
@@ -1052,49 +1052,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3123</v>
+        <v>2649</v>
       </c>
       <c r="C13" t="n">
-        <v>524</v>
+        <v>401</v>
       </c>
       <c r="D13" t="n">
-        <v>2391</v>
+        <v>2209</v>
       </c>
       <c r="E13" t="n">
-        <v>3113</v>
+        <v>2496</v>
       </c>
       <c r="F13" t="n">
-        <v>3789</v>
+        <v>3329</v>
       </c>
       <c r="G13" t="n">
-        <v>1110</v>
+        <v>1063</v>
       </c>
       <c r="H13" t="n">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="I13" t="n">
-        <v>1053</v>
+        <v>985</v>
       </c>
       <c r="J13" t="n">
-        <v>1109</v>
+        <v>1027</v>
       </c>
       <c r="K13" t="n">
-        <v>1227</v>
+        <v>1262</v>
       </c>
       <c r="L13" t="n">
-        <v>19977</v>
+        <v>16578</v>
       </c>
       <c r="M13" t="n">
-        <v>2903</v>
+        <v>3136</v>
       </c>
       <c r="N13" t="n">
-        <v>15693</v>
+        <v>12212</v>
       </c>
       <c r="O13" t="n">
-        <v>20432</v>
+        <v>16433</v>
       </c>
       <c r="P13" t="n">
-        <v>23634</v>
+        <v>21493</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_results/time_results.xlsx
+++ b/experiment_results/time_results.xlsx
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2500</v>
+        <v>2440</v>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>2417</v>
+        <v>2407</v>
       </c>
       <c r="E4" t="n">
-        <v>2473</v>
+        <v>2419</v>
       </c>
       <c r="F4" t="n">
-        <v>2768</v>
+        <v>2531</v>
       </c>
       <c r="G4" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>43</v>
@@ -611,22 +611,22 @@
         <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="L4" t="n">
-        <v>9193</v>
+        <v>8723</v>
       </c>
       <c r="M4" t="n">
-        <v>830</v>
+        <v>732</v>
       </c>
       <c r="N4" t="n">
-        <v>7834</v>
+        <v>7766</v>
       </c>
       <c r="O4" t="n">
-        <v>9364</v>
+        <v>8600</v>
       </c>
       <c r="P4" t="n">
-        <v>10590</v>
+        <v>10648</v>
       </c>
     </row>
     <row r="5">
@@ -636,49 +636,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2323</v>
+        <v>2204</v>
       </c>
       <c r="C5" t="n">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>2148</v>
+        <v>2072</v>
       </c>
       <c r="E5" t="n">
-        <v>2238</v>
+        <v>2171</v>
       </c>
       <c r="F5" t="n">
-        <v>2770</v>
+        <v>2460</v>
       </c>
       <c r="G5" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="L5" t="n">
-        <v>12608</v>
+        <v>12373</v>
       </c>
       <c r="M5" t="n">
-        <v>1109</v>
+        <v>2042</v>
       </c>
       <c r="N5" t="n">
-        <v>10505</v>
+        <v>10322</v>
       </c>
       <c r="O5" t="n">
-        <v>12689</v>
+        <v>11634</v>
       </c>
       <c r="P5" t="n">
-        <v>14151</v>
+        <v>17720</v>
       </c>
     </row>
     <row r="6">
@@ -688,49 +688,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
         <v>27</v>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="n">
+        <v>140</v>
+      </c>
+      <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>62</v>
-      </c>
-      <c r="F6" t="n">
-        <v>65</v>
-      </c>
-      <c r="G6" t="n">
-        <v>168</v>
-      </c>
-      <c r="H6" t="n">
-        <v>55</v>
-      </c>
       <c r="I6" t="n">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J6" t="n">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K6" t="n">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="L6" t="n">
-        <v>4446</v>
+        <v>4280</v>
       </c>
       <c r="M6" t="n">
-        <v>936</v>
+        <v>921</v>
       </c>
       <c r="N6" t="n">
-        <v>3624</v>
+        <v>3590</v>
       </c>
       <c r="O6" t="n">
-        <v>4132</v>
+        <v>3780</v>
       </c>
       <c r="P6" t="n">
-        <v>6870</v>
+        <v>6366</v>
       </c>
     </row>
     <row r="7">
@@ -755,34 +755,34 @@
         <v>59</v>
       </c>
       <c r="G7" t="n">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="H7" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="J7" t="n">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="K7" t="n">
-        <v>577</v>
+        <v>413</v>
       </c>
       <c r="L7" t="n">
-        <v>6194</v>
+        <v>5879</v>
       </c>
       <c r="M7" t="n">
-        <v>301</v>
+        <v>111</v>
       </c>
       <c r="N7" t="n">
-        <v>5785</v>
+        <v>5721</v>
       </c>
       <c r="O7" t="n">
-        <v>6290</v>
+        <v>5880</v>
       </c>
       <c r="P7" t="n">
-        <v>6707</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="8">
@@ -792,49 +792,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1927</v>
+        <v>1500</v>
       </c>
       <c r="C8" t="n">
-        <v>706</v>
+        <v>840</v>
       </c>
       <c r="D8" t="n">
-        <v>734</v>
+        <v>148</v>
       </c>
       <c r="E8" t="n">
-        <v>2303</v>
+        <v>1549</v>
       </c>
       <c r="F8" t="n">
-        <v>2554</v>
+        <v>2655</v>
       </c>
       <c r="G8" t="n">
-        <v>661</v>
+        <v>565</v>
       </c>
       <c r="H8" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="J8" t="n">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="K8" t="n">
-        <v>870</v>
+        <v>568</v>
       </c>
       <c r="L8" t="n">
-        <v>17088</v>
+        <v>15580</v>
       </c>
       <c r="M8" t="n">
-        <v>1828</v>
+        <v>1265</v>
       </c>
       <c r="N8" t="n">
-        <v>13761</v>
+        <v>13508</v>
       </c>
       <c r="O8" t="n">
-        <v>17072</v>
+        <v>15562</v>
       </c>
       <c r="P8" t="n">
-        <v>19766</v>
+        <v>18379</v>
       </c>
     </row>
     <row r="9">
@@ -844,49 +844,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3197</v>
+        <v>2819</v>
       </c>
       <c r="C9" t="n">
-        <v>581</v>
+        <v>345</v>
       </c>
       <c r="D9" t="n">
-        <v>2313</v>
+        <v>2308</v>
       </c>
       <c r="E9" t="n">
-        <v>3291</v>
+        <v>2755</v>
       </c>
       <c r="F9" t="n">
-        <v>4308</v>
+        <v>3467</v>
       </c>
       <c r="G9" t="n">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="J9" t="n">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="K9" t="n">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="L9" t="n">
-        <v>16826</v>
+        <v>18543</v>
       </c>
       <c r="M9" t="n">
-        <v>2040</v>
+        <v>3360</v>
       </c>
       <c r="N9" t="n">
-        <v>13654</v>
+        <v>14513</v>
       </c>
       <c r="O9" t="n">
-        <v>16745</v>
+        <v>17527</v>
       </c>
       <c r="P9" t="n">
-        <v>20358</v>
+        <v>24814</v>
       </c>
     </row>
     <row r="10">
@@ -896,49 +896,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1005</v>
+        <v>2058</v>
       </c>
       <c r="C10" t="n">
-        <v>677</v>
+        <v>840</v>
       </c>
       <c r="D10" t="n">
-        <v>212</v>
+        <v>590</v>
       </c>
       <c r="E10" t="n">
-        <v>747</v>
+        <v>2484</v>
       </c>
       <c r="F10" t="n">
-        <v>2245</v>
+        <v>2949</v>
       </c>
       <c r="G10" t="n">
-        <v>767</v>
+        <v>849</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="I10" t="n">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="J10" t="n">
-        <v>763</v>
+        <v>784</v>
       </c>
       <c r="K10" t="n">
-        <v>799</v>
+        <v>1124</v>
       </c>
       <c r="L10" t="n">
-        <v>19017</v>
+        <v>17672</v>
       </c>
       <c r="M10" t="n">
-        <v>2743</v>
+        <v>3523</v>
       </c>
       <c r="N10" t="n">
-        <v>15291</v>
+        <v>12215</v>
       </c>
       <c r="O10" t="n">
-        <v>18737</v>
+        <v>17805</v>
       </c>
       <c r="P10" t="n">
-        <v>24726</v>
+        <v>25015</v>
       </c>
     </row>
     <row r="11">
@@ -948,49 +948,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="C11" t="n">
-        <v>694</v>
+        <v>394</v>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F11" t="n">
-        <v>2416</v>
+        <v>1383</v>
       </c>
       <c r="G11" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H11" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I11" t="n">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="J11" t="n">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="K11" t="n">
-        <v>1095</v>
+        <v>1169</v>
       </c>
       <c r="L11" t="n">
-        <v>9071</v>
+        <v>32985</v>
       </c>
       <c r="M11" t="n">
-        <v>4526</v>
+        <v>37379</v>
       </c>
       <c r="N11" t="n">
-        <v>5031</v>
+        <v>4771</v>
       </c>
       <c r="O11" t="n">
-        <v>7366</v>
+        <v>6992</v>
       </c>
       <c r="P11" t="n">
-        <v>18554</v>
+        <v>119180</v>
       </c>
     </row>
     <row r="12">
@@ -1000,49 +1000,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574</v>
+        <v>480</v>
       </c>
       <c r="C12" t="n">
-        <v>900</v>
+        <v>575</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F12" t="n">
-        <v>2686</v>
+        <v>1480</v>
       </c>
       <c r="G12" t="n">
-        <v>1237</v>
+        <v>14951</v>
       </c>
       <c r="H12" t="n">
-        <v>117</v>
+        <v>41597</v>
       </c>
       <c r="I12" t="n">
-        <v>1088</v>
+        <v>1012</v>
       </c>
       <c r="J12" t="n">
-        <v>1313</v>
+        <v>1076</v>
       </c>
       <c r="K12" t="n">
-        <v>1349</v>
+        <v>139740</v>
       </c>
       <c r="L12" t="n">
-        <v>19309</v>
+        <v>682290</v>
       </c>
       <c r="M12" t="n">
-        <v>5729</v>
+        <v>648409</v>
       </c>
       <c r="N12" t="n">
-        <v>12319</v>
+        <v>12076</v>
       </c>
       <c r="O12" t="n">
-        <v>18724</v>
+        <v>726025</v>
       </c>
       <c r="P12" t="n">
-        <v>30587</v>
+        <v>2038034</v>
       </c>
     </row>
     <row r="13">
@@ -1052,49 +1052,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2649</v>
+        <v>2689</v>
       </c>
       <c r="C13" t="n">
-        <v>401</v>
+        <v>544</v>
       </c>
       <c r="D13" t="n">
-        <v>2209</v>
+        <v>2148</v>
       </c>
       <c r="E13" t="n">
-        <v>2496</v>
+        <v>2517</v>
       </c>
       <c r="F13" t="n">
-        <v>3329</v>
+        <v>3991</v>
       </c>
       <c r="G13" t="n">
-        <v>1063</v>
+        <v>1006</v>
       </c>
       <c r="H13" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I13" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="J13" t="n">
-        <v>1027</v>
+        <v>995</v>
       </c>
       <c r="K13" t="n">
-        <v>1262</v>
+        <v>1119</v>
       </c>
       <c r="L13" t="n">
-        <v>16578</v>
+        <v>158289</v>
       </c>
       <c r="M13" t="n">
-        <v>3136</v>
+        <v>276650</v>
       </c>
       <c r="N13" t="n">
-        <v>12212</v>
+        <v>13766</v>
       </c>
       <c r="O13" t="n">
-        <v>16433</v>
+        <v>21566</v>
       </c>
       <c r="P13" t="n">
-        <v>21493</v>
+        <v>711736</v>
       </c>
     </row>
   </sheetData>
